--- a/Intermediate II/Week 5/workbook/W5_V3 GoalSeek.xlsx
+++ b/Intermediate II/Week 5/workbook/W5_V3 GoalSeek.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mq20084022\Google Drive\Excel MOOC\003 Course 3 - Intermediate II\05 Week 5\01 Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foongmin\Desktop\excel-skills-for-business\Intermediate II\Week 5\workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825076D7-232E-45F0-AEBC-5DBF715242FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9165" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projections &amp; Estimates" sheetId="3" r:id="rId1"/>
@@ -63,11 +64,19 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">24</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -238,13 +247,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -777,11 +786,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -825,17 +834,17 @@
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -884,16 +893,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="33" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="19" borderId="0" xfId="34" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="33"/>
     <xf numFmtId="165" fontId="1" fillId="19" borderId="0" xfId="34" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="33"/>
-    <xf numFmtId="164" fontId="1" fillId="19" borderId="0" xfId="34" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="19" borderId="0" xfId="34" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -908,8 +917,8 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
@@ -942,10 +951,10 @@
     <cellStyle name="Calculation" xfId="21" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="23" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="10" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="8"/>
-    <cellStyle name="Currency 2" xfId="7"/>
-    <cellStyle name="Currency 3" xfId="5"/>
-    <cellStyle name="Currency 4" xfId="9"/>
+    <cellStyle name="Comma 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Currency 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Currency 3" xfId="5" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Currency 4" xfId="9" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="Explanatory Text" xfId="26" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="17" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="13" builtinId="16" customBuiltin="1"/>
@@ -956,7 +965,7 @@
     <cellStyle name="Linked Cell" xfId="22" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="19" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Note" xfId="25" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="1" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="11" builtinId="5"/>
@@ -1273,23 +1282,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="35" customFormat="1" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="35" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>41</v>
       </c>
@@ -1301,7 +1310,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" s="35" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -1311,7 +1320,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="26">
         <v>1</v>
       </c>
@@ -1325,7 +1334,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>34</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>25</v>
       </c>
@@ -1367,7 +1376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>26</v>
       </c>
@@ -1386,7 +1395,7 @@
       </c>
       <c r="F7" s="35"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>30</v>
       </c>
@@ -1405,7 +1414,7 @@
       </c>
       <c r="F8" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>27</v>
       </c>
@@ -1424,7 +1433,7 @@
       </c>
       <c r="F9" s="35"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>28</v>
       </c>
@@ -1443,7 +1452,7 @@
       </c>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>29</v>
       </c>
@@ -1462,7 +1471,7 @@
       </c>
       <c r="F11" s="35"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
         <v>31</v>
       </c>
@@ -1475,7 +1484,7 @@
       </c>
       <c r="F12" s="31"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -1483,13 +1492,13 @@
       <c r="E13" s="35"/>
       <c r="F13" s="31"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>39</v>
       </c>
@@ -1504,7 +1513,7 @@
       <c r="E15" s="37"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>0.05</v>
       </c>
@@ -1521,7 +1530,7 @@
       </c>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -1537,7 +1546,7 @@
       </c>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>0.08</v>
       </c>
@@ -1547,7 +1556,7 @@
       <c r="C18" s="31"/>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>9.5000000000000001E-2</v>
       </c>
@@ -1557,7 +1566,7 @@
       <c r="C19" s="31"/>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>0.11</v>
       </c>
@@ -1573,7 +1582,7 @@
       <c r="G20"/>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>0.125</v>
       </c>
@@ -1591,7 +1600,7 @@
       <c r="G21"/>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>0.14000000000000001</v>
       </c>
@@ -1609,7 +1618,7 @@
       <c r="G22"/>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>0.155</v>
       </c>
@@ -1623,7 +1632,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>36</v>
       </c>
@@ -1635,7 +1644,7 @@
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="32">
         <f>E21*E22*(1+E23)</f>
         <v>176015</v>
@@ -1668,7 +1677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="39">
         <v>0.03</v>
       </c>
@@ -1695,7 +1704,7 @@
         <v>217845</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="39">
         <v>0.04</v>
       </c>
@@ -1721,7 +1730,7 @@
         <v>219960</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="39">
         <v>0.05</v>
       </c>
@@ -1747,7 +1756,7 @@
         <v>222075</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="39">
         <v>0.06</v>
       </c>
@@ -1773,7 +1782,7 @@
         <v>224190</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="39">
         <v>0.08</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>228420.00000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="39">
         <v>0.09</v>
       </c>
@@ -1825,7 +1834,7 @@
         <v>230535.00000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="39">
         <v>0.1</v>
       </c>
@@ -1851,7 +1860,7 @@
         <v>232650.00000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="39">
         <v>0.11</v>
       </c>
@@ -1883,22 +1892,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="40.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="16" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
@@ -1908,7 +1919,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" s="18" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="18" customFormat="1" ht="4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1916,7 +1927,7 @@
       <c r="E2" s="20"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1924,7 +1935,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1936,12 +1947,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="10">
-        <v>10</v>
+        <v>11.594202898550725</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
@@ -1949,11 +1960,11 @@
       </c>
       <c r="E5" s="4">
         <f>B5*B6</f>
-        <v>10000</v>
+        <v>11594.202898550724</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1970,7 +1981,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -1983,11 +1994,11 @@
       </c>
       <c r="E7" s="21">
         <f>E5/E6</f>
-        <v>25</v>
+        <v>28.985507246376809</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1999,7 +2010,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -2013,7 +2024,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -2030,7 +2041,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2047,7 +2058,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -2064,13 +2075,13 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -2080,7 +2091,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -2097,7 +2108,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -2114,13 +2125,13 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7">
         <f>B16*E7</f>
-        <v>593750</v>
+        <v>688405.79710144922</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="9" t="s">
@@ -2132,7 +2143,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -2145,11 +2156,11 @@
       </c>
       <c r="E18" s="7">
         <f>E17*B5</f>
-        <v>749000</v>
+        <v>868405.79710144922</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
@@ -2157,13 +2168,13 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3">
         <f>B17+B18</f>
-        <v>693750</v>
+        <v>788405.79710144922</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
@@ -2171,41 +2182,41 @@
       </c>
       <c r="E20" s="3">
         <f>E18-B20</f>
-        <v>55250</v>
+        <v>80000</v>
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
